--- a/Documentatie/Eindverslag/peer-review-project gewogen groep PI.xlsx
+++ b/Documentatie/Eindverslag/peer-review-project gewogen groep PI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invullen" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>aantal deelnemers =</t>
   </si>
@@ -142,25 +142,22 @@
     <t xml:space="preserve">Kolom E24:E29 </t>
   </si>
   <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Kerwin</t>
+  </si>
+  <si>
+    <t>Joeri</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Jelle</t>
+  </si>
+  <si>
     <t>Groep PI</t>
-  </si>
-  <si>
-    <t>Jelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben </t>
-  </si>
-  <si>
-    <t>Joeri</t>
-  </si>
-  <si>
-    <t>Kerwin</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Ben</t>
   </si>
 </sst>
 </file>
@@ -481,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,6 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -928,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,18 +937,18 @@
     <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
-    <col min="4" max="8" width="10.21875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="24" customWidth="1"/>
-    <col min="13" max="17" width="5.77734375" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="9" width="10.21875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" style="24" customWidth="1"/>
+    <col min="14" max="18" width="5.77734375" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -959,17 +957,18 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="1"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="16"/>
       <c r="D2" s="1"/>
@@ -977,76 +976,90 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="E3" s="5" t="str">
+        <f>B5</f>
+        <v>Ben</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>B6</f>
+        <v>Joeri</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f>B7</f>
+        <v>Kerwin</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="25">
+      <c r="L3" s="51"/>
+      <c r="M3" s="25">
         <v>5</v>
       </c>
-      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="50" t="s">
+      <c r="E4" s="8">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8">
+        <v>8</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="29">
-        <f>(MAX(D12:H12)-MIN(D12:H12))/2</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="29">
+        <f>(MAX(D13:I13)-MIN(D13:I13))/2</f>
+        <v>1</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -1056,102 +1069,133 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="8">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>8</v>
+      </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="31" t="s">
+      <c r="G6" s="8">
+        <v>8</v>
+      </c>
+      <c r="H6" s="8">
+        <v>8</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="8">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9</v>
+      </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="32">
+      <c r="H7" s="8">
+        <v>8</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="32">
         <v>7</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>8</v>
+      </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="9"/>
@@ -1159,454 +1203,505 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="9">
-        <f>SUM(D4:D10)-D4</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <f>SUM(E4:E10)-E5</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <f>SUM(F4:F10)-F6</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <f>SUM(G4:G10)-G7</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <f>SUM(H4:H10)-H8</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="2"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="11" t="str">
-        <f>IF(D11&gt;0,D11/($L$3-1),"")</f>
-        <v/>
-      </c>
-      <c r="E12" s="11" t="str">
-        <f>IF(E11&gt;0,E11/($L$3-1),"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="11" t="str">
-        <f>IF(F11&gt;0,F11/($L$3-1),"")</f>
-        <v/>
-      </c>
-      <c r="G12" s="11" t="str">
-        <f>IF(G11&gt;0,G11/($L$3-1),"")</f>
-        <v/>
-      </c>
-      <c r="H12" s="11" t="str">
-        <f>IF(H11&gt;0,H11/($L$3-1),"")</f>
-        <v/>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="10"/>
+      <c r="D12" s="9">
+        <f>SUM(D4:D11)-D4</f>
+        <v>24</v>
+      </c>
+      <c r="E12" s="9">
+        <f>SUM(E4:E11)-E5</f>
+        <v>32</v>
+      </c>
+      <c r="F12" s="9">
+        <f>SUM(F4:F11)-F6</f>
+        <v>25.5</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(G4:G11)-G7</f>
+        <v>24</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H4:H11)-H8</f>
+        <v>24</v>
+      </c>
+      <c r="I12" s="9">
+        <f>SUM(I4:I11)-I9</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="2"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="10"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="11">
+        <f>IF(D12&gt;0,D12/($M$3-1),"")</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="11">
+        <f>IF(E12&gt;0,E12/($M$3-1),"")</f>
+        <v>8</v>
+      </c>
+      <c r="F13" s="11">
+        <f>IF(F12&gt;0,F12/($M$3-1),"")</f>
+        <v>6.375</v>
+      </c>
+      <c r="G13" s="11">
+        <f>IF(G12&gt;0,G12/($M$3-1),"")</f>
+        <v>6</v>
+      </c>
+      <c r="H13" s="11">
+        <f>IF(H12&gt;0,H12/($M$3-1),"")</f>
+        <v>6</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f t="shared" ref="I13" si="0">IF(I12&gt;0,I12/($M$3-1),"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="2"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="11" t="e">
-        <f>AVERAGE(D12:J12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="11" t="str">
-        <f>IF(D11&gt;0,AVERAGE(D5:H8),"")</f>
-        <v/>
-      </c>
-      <c r="E14" s="11" t="str">
-        <f>IF(E11&gt;0,AVERAGE(D4:H4,D6:H8),"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="11" t="str">
-        <f>IF(F11&gt;0,AVERAGE(D4:H5,D7:H8),"")</f>
-        <v/>
-      </c>
-      <c r="G14" s="11" t="str">
-        <f>IF(G11&gt;0,AVERAGE(D4:H6,D8:H8),"")</f>
-        <v/>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f>IF(H11&gt;0,AVERAGE(D4:H7,#REF!),"")</f>
-        <v/>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="10"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="2"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="9"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="10"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11">
+        <f>AVERAGE(D13:K13)</f>
+        <v>6.4749999999999996</v>
+      </c>
+      <c r="D15" s="11">
+        <f>IF(D12&gt;0,AVERAGE(D5:I9),"")</f>
+        <v>8.125</v>
+      </c>
+      <c r="E15" s="11">
+        <f>IF(E12&gt;0,AVERAGE(D4:I4,D6:I9),"")</f>
+        <v>8.09375</v>
+      </c>
+      <c r="F15" s="11">
+        <f>IF(F12&gt;0,AVERAGE(D4:I5,D7:I9),"")</f>
+        <v>8.125</v>
+      </c>
+      <c r="G15" s="11">
+        <f>IF(G12&gt;0,AVERAGE(D4:I6,D8:I9),"")</f>
+        <v>8.0416666666666661</v>
+      </c>
+      <c r="H15" s="1">
+        <f>IF(H12&gt;0,AVERAGE(D4:I7,D9:I9),"")</f>
+        <v>8.0833333333333339</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>IF(I12&gt;0,AVERAGE(D4:I8),"")</f>
+        <v/>
+      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="2"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11">
-        <f>IF(D11&gt;0,(D12-D14)/D14,0)</f>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11">
+        <f>IF(D12&gt;0,(D13-D15)/D15,0)</f>
+        <v>-0.26153846153846155</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" ref="E17:I17" si="1">IF(E12&gt;0,(E13-E15)/E15,0)</f>
+        <v>-1.1583011583011582E-2</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.2153846153846154</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.25388601036269426</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.25773195876288663</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" ref="E16:H16" si="0">IF(E11&gt;0,(E12-E14)/E14,0)</f>
+      <c r="J17" s="2"/>
+      <c r="K17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19">
+        <f>ABS(D18)</f>
+        <v>1.6934615384615386</v>
+      </c>
+      <c r="N17" s="19">
+        <f>ABS(E18)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O17" s="19">
+        <f>ABS(F18)</f>
+        <v>1.3946153846153846</v>
+      </c>
+      <c r="P17" s="19">
+        <f>ABS(G18)</f>
+        <v>1.6439119170984453</v>
+      </c>
+      <c r="Q17" s="19">
+        <f>ABS(H18)</f>
+        <v>1.6688144329896908</v>
+      </c>
+      <c r="R17" s="19">
+        <f>ABS(I18)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="11">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="9">
+        <f>D17*$C$15</f>
+        <v>-1.6934615384615386</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" ref="E18:I18" si="2">E17*$C$15</f>
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.3946153846153846</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.6439119170984453</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.6688144329896908</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19" t="e">
-        <f>ABS(D17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="19" t="e">
-        <f>ABS(E17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="19" t="e">
-        <f>ABS(F17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="19" t="e">
-        <f>ABS(G17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="19" t="e">
-        <f>ABS(H17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="19" t="e">
-        <f>ABS(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="9" t="e">
-        <f>D16*$C$14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="9" t="e">
-        <f>E16*$C$14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="9" t="e">
-        <f>F16*$C$14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="9" t="e">
-        <f>G16*$C$14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="9" t="e">
-        <f>H16*$C$14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="17" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19" t="e">
-        <f>SUM(L16:T16)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="23" t="e">
-        <f>D17*$L$4/$L18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="23" t="e">
-        <f>E17*$L$4/$L18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="23" t="e">
-        <f>F17*$L$4/$L18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="23" t="e">
-        <f>G17*$L$4/$L18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="23" t="e">
-        <f>H17*$L$4/$L18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19" t="e">
-        <f>IF(L17&lt;$L$4,$L$4,L17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="20"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19">
+        <f>SUM(M17:U17)/2</f>
+        <v>3.2379016365825293</v>
+      </c>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="13"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
+      <c r="R18" s="20"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="23">
+        <f>D18*$M$4/$M19</f>
+        <v>-0.52301203944197538</v>
+      </c>
+      <c r="E19" s="23">
+        <f>E18*$M$4/$M19</f>
+        <v>-2.3163149600541721E-2</v>
+      </c>
+      <c r="F19" s="23">
+        <f>F18*$M$4/$M19</f>
+        <v>-0.43071579718750913</v>
+      </c>
+      <c r="G19" s="23">
+        <f>G18*$M$4/$M19</f>
+        <v>-0.50770903554486169</v>
+      </c>
+      <c r="H19" s="23">
+        <f>H18*$M$4/$M19</f>
+        <v>-0.51539997822511219</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" ref="I19" si="3">I18*$M$4/$M19</f>
+        <v>0</v>
+      </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30" t="s">
+      <c r="K19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19">
+        <f>IF(M18&lt;$M$4,$M$4,M18)</f>
+        <v>3.2379016365825293</v>
+      </c>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="13"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="33" t="e">
-        <f>MAX(1,MIN(10,$J$7+D18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="34" t="e">
-        <f>MAX(1,MIN(10,$J$7+E18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="34" t="e">
-        <f>MAX(1,MIN(10,$J$7+F18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="34" t="e">
-        <f>MAX(1,MIN(10,$J$7+G18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="34" t="e">
-        <f>MAX(1,MIN(10,$J$7+H18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="27"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="41" t="s">
+      <c r="D21" s="33">
+        <f>MAX(1,MIN(10,$K$7+D19))</f>
+        <v>6.4769879605580245</v>
+      </c>
+      <c r="E21" s="34">
+        <f>MAX(1,MIN(10,$K$7+E19))</f>
+        <v>6.976836850399458</v>
+      </c>
+      <c r="F21" s="34">
+        <f>MAX(1,MIN(10,$K$7+F19))</f>
+        <v>6.5692842028124909</v>
+      </c>
+      <c r="G21" s="34">
+        <f>MAX(1,MIN(10,$K$7+G19))</f>
+        <v>6.4922909644551385</v>
+      </c>
+      <c r="H21" s="34">
+        <f>MAX(1,MIN(10,$K$7+H19))</f>
+        <v>6.484600021774888</v>
+      </c>
+      <c r="I21" s="35">
+        <f t="shared" ref="I21" si="4">MAX(1,MIN(10,$K$7+I19))</f>
+        <v>7</v>
+      </c>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C23" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D23" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E23" s="44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="str">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="40" t="str">
         <f>B4</f>
         <v>Jelle</v>
       </c>
-      <c r="C23" s="40" t="e">
-        <f>D20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="47" t="e">
-        <f>C23+D23</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="35" t="str">
-        <f>B5</f>
+      <c r="C24" s="41">
+        <f>D21</f>
+        <v>6.4769879605580245</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="48">
+        <f>C24+D24</f>
+        <v>6.4769879605580245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="36" t="str">
+        <f t="shared" ref="B25:B29" si="5">B5</f>
         <v>Ben</v>
       </c>
-      <c r="C24" s="37" t="e">
-        <f>E20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="48" t="e">
-        <f t="shared" ref="E24:E28" si="1">C24+D24</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="str">
-        <f>B6</f>
+      <c r="C25" s="38">
+        <f>E21</f>
+        <v>6.976836850399458</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="49">
+        <f t="shared" ref="E25:E29" si="6">C25+D25</f>
+        <v>6.976836850399458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="36" t="str">
+        <f t="shared" si="5"/>
         <v>Joeri</v>
       </c>
-      <c r="C25" s="37" t="e">
-        <f>F20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="48" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="35" t="str">
-        <f>B7</f>
+      <c r="C26" s="38">
+        <f>F21</f>
+        <v>6.5692842028124909</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="49">
+        <f t="shared" si="6"/>
+        <v>6.5692842028124909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="36" t="str">
+        <f t="shared" si="5"/>
         <v>Kerwin</v>
       </c>
-      <c r="C26" s="37" t="e">
-        <f>G20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="48" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="35" t="str">
-        <f>B8</f>
+      <c r="C27" s="38">
+        <f>G21</f>
+        <v>6.4922909644551385</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="49">
+        <f t="shared" si="6"/>
+        <v>6.4922909644551385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="str">
+        <f t="shared" si="5"/>
         <v>Mike</v>
       </c>
-      <c r="C27" s="37" t="e">
-        <f>H20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="48" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="36" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C28" s="38" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C28" s="38">
+        <f>H21</f>
+        <v>6.484600021774888</v>
       </c>
       <c r="D28" s="46"/>
-      <c r="E28" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="E28" s="49">
+        <f t="shared" si="6"/>
+        <v>6.484600021774888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="39">
+        <f>I21</f>
+        <v>7</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="50">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentatie/Eindverslag/peer-review-project gewogen groep PI.xlsx
+++ b/Documentatie/Eindverslag/peer-review-project gewogen groep PI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\eclipse-workspace\project-parkeersimulator\Documentatie\Eindverslag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\BDMei\eclipse-workspace\project-parkeersimulator\Documentatie\Eindverslag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invullen" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -929,24 +929,24 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
-    <col min="4" max="9" width="10.21875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="24" customWidth="1"/>
-    <col min="14" max="18" width="5.77734375" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="14.140625" style="3" customWidth="1"/>
+    <col min="4" max="9" width="10.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="24" customWidth="1"/>
+    <col min="14" max="18" width="5.7109375" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>45</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="16"/>
       <c r="D2" s="1"/>
@@ -985,7 +985,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
@@ -1021,7 +1021,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="L4" s="51"/>
       <c r="M4" s="29">
         <f>(MAX(D13:I13)-MIN(D13:I13))/2</f>
-        <v>1</v>
+        <v>0.1875</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1057,18 +1057,26 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8">
+        <v>8</v>
+      </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="8">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8">
+        <v>8.5</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="2"/>
       <c r="N5" s="2"/>
@@ -1077,7 +1085,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
@@ -1110,7 +1118,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1143,7 +1151,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
@@ -1174,7 +1182,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -1195,7 +1203,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="9"/>
@@ -1214,7 +1222,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="9"/>
@@ -1233,14 +1241,14 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="9">
         <f>SUM(D4:D11)-D4</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E12" s="9">
         <f>SUM(E4:E11)-E5</f>
@@ -1248,15 +1256,15 @@
       </c>
       <c r="F12" s="9">
         <f>SUM(F4:F11)-F6</f>
-        <v>25.5</v>
+        <v>33.5</v>
       </c>
       <c r="G12" s="9">
         <f>SUM(G4:G11)-G7</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H12" s="9">
         <f>SUM(H4:H11)-H8</f>
-        <v>24</v>
+        <v>32.5</v>
       </c>
       <c r="I12" s="9">
         <f>SUM(I4:I11)-I9</f>
@@ -1272,14 +1280,14 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="11">
         <f>IF(D12&gt;0,D12/($M$3-1),"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" s="11">
         <f>IF(E12&gt;0,E12/($M$3-1),"")</f>
@@ -1287,15 +1295,15 @@
       </c>
       <c r="F13" s="11">
         <f>IF(F12&gt;0,F12/($M$3-1),"")</f>
-        <v>6.375</v>
+        <v>8.375</v>
       </c>
       <c r="G13" s="11">
         <f>IF(G12&gt;0,G12/($M$3-1),"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H13" s="11">
         <f>IF(H12&gt;0,H12/($M$3-1),"")</f>
-        <v>6</v>
+        <v>8.125</v>
       </c>
       <c r="I13" s="11" t="str">
         <f t="shared" ref="I13" si="0">IF(I12&gt;0,I12/($M$3-1),"")</f>
@@ -1311,7 +1319,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -1334,13 +1342,13 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="11">
         <f>AVERAGE(D13:K13)</f>
-        <v>6.4749999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="D15" s="11">
         <f>IF(D12&gt;0,AVERAGE(D5:I9),"")</f>
@@ -1356,11 +1364,11 @@
       </c>
       <c r="G15" s="11">
         <f>IF(G12&gt;0,AVERAGE(D4:I6,D8:I9),"")</f>
-        <v>8.0416666666666661</v>
+        <v>8.0625</v>
       </c>
       <c r="H15" s="1">
         <f>IF(H12&gt;0,AVERAGE(D4:I7,D9:I9),"")</f>
-        <v>8.0833333333333339</v>
+        <v>8.09375</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>IF(I12&gt;0,AVERAGE(D4:I8),"")</f>
@@ -1376,7 +1384,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="12"/>
       <c r="D16" s="11"/>
@@ -1395,14 +1403,14 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="11">
         <f>IF(D12&gt;0,(D13-D15)/D15,0)</f>
-        <v>-0.26153846153846155</v>
+        <v>-1.5384615384615385E-2</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" ref="E17:I17" si="1">IF(E12&gt;0,(E13-E15)/E15,0)</f>
@@ -1410,15 +1418,15 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
-        <v>-0.2153846153846154</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="1"/>
-        <v>-0.25388601036269426</v>
+        <v>-7.7519379844961239E-3</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>-0.25773195876288663</v>
+        <v>3.8610038610038611E-3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="1"/>
@@ -1430,31 +1438,31 @@
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="19">
-        <f>ABS(D18)</f>
-        <v>1.6934615384615386</v>
+        <f t="shared" ref="M17:R17" si="2">ABS(D18)</f>
+        <v>0.12461538461538461</v>
       </c>
       <c r="N17" s="19">
-        <f>ABS(E18)</f>
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.382239382239381E-2</v>
       </c>
       <c r="O17" s="19">
-        <f>ABS(F18)</f>
-        <v>1.3946153846153846</v>
+        <f t="shared" si="2"/>
+        <v>0.24923076923076923</v>
       </c>
       <c r="P17" s="19">
-        <f>ABS(G18)</f>
-        <v>1.6439119170984453</v>
+        <f t="shared" si="2"/>
+        <v>6.2790697674418597E-2</v>
       </c>
       <c r="Q17" s="19">
-        <f>ABS(H18)</f>
-        <v>1.6688144329896908</v>
+        <f t="shared" si="2"/>
+        <v>3.1274131274131277E-2</v>
       </c>
       <c r="R17" s="19">
-        <f>ABS(I18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1462,26 +1470,26 @@
       <c r="C18" s="2"/>
       <c r="D18" s="9">
         <f>D17*$C$15</f>
-        <v>-1.6934615384615386</v>
+        <v>-0.12461538461538461</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" ref="E18:I18" si="2">E17*$C$15</f>
-        <v>-7.4999999999999997E-2</v>
+        <f t="shared" ref="E18:I18" si="3">E17*$C$15</f>
+        <v>-9.382239382239381E-2</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.3946153846153846</v>
+        <f t="shared" si="3"/>
+        <v>0.24923076923076923</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.6439119170984453</v>
+        <f t="shared" si="3"/>
+        <v>-6.2790697674418597E-2</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.6688144329896908</v>
+        <f t="shared" si="3"/>
+        <v>3.1274131274131277E-2</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J18" s="2"/>
@@ -1491,7 +1499,7 @@
       <c r="L18" s="18"/>
       <c r="M18" s="19">
         <f>SUM(M17:U17)/2</f>
-        <v>3.2379016365825293</v>
+        <v>0.28086668830854877</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
@@ -1499,7 +1507,7 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
@@ -1507,26 +1515,26 @@
       <c r="C19" s="13"/>
       <c r="D19" s="23">
         <f>D18*$M$4/$M19</f>
-        <v>-0.52301203944197538</v>
+        <v>-8.3190301975990644E-2</v>
       </c>
       <c r="E19" s="23">
         <f>E18*$M$4/$M19</f>
-        <v>-2.3163149600541721E-2</v>
+        <v>-6.2633625039838506E-2</v>
       </c>
       <c r="F19" s="23">
         <f>F18*$M$4/$M19</f>
-        <v>-0.43071579718750913</v>
+        <v>0.16638060395198129</v>
       </c>
       <c r="G19" s="23">
         <f>G18*$M$4/$M19</f>
-        <v>-0.50770903554486169</v>
+        <v>-4.1917594018910015E-2</v>
       </c>
       <c r="H19" s="23">
         <f>H18*$M$4/$M19</f>
-        <v>-0.51539997822511219</v>
+        <v>2.0877875013279507E-2</v>
       </c>
       <c r="I19" s="23">
-        <f t="shared" ref="I19" si="3">I18*$M$4/$M19</f>
+        <f t="shared" ref="I19" si="4">I18*$M$4/$M19</f>
         <v>0</v>
       </c>
       <c r="J19" s="2"/>
@@ -1536,7 +1544,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="19">
         <f>IF(M18&lt;$M$4,$M$4,M18)</f>
-        <v>3.2379016365825293</v>
+        <v>0.28086668830854877</v>
       </c>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
@@ -1544,7 +1552,7 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1562,38 +1570,38 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="33">
         <f>MAX(1,MIN(10,$K$7+D19))</f>
-        <v>6.4769879605580245</v>
+        <v>6.916809698024009</v>
       </c>
       <c r="E21" s="34">
         <f>MAX(1,MIN(10,$K$7+E19))</f>
-        <v>6.976836850399458</v>
+        <v>6.9373663749601615</v>
       </c>
       <c r="F21" s="34">
         <f>MAX(1,MIN(10,$K$7+F19))</f>
-        <v>6.5692842028124909</v>
+        <v>7.1663806039519811</v>
       </c>
       <c r="G21" s="34">
         <f>MAX(1,MIN(10,$K$7+G19))</f>
-        <v>6.4922909644551385</v>
+        <v>6.9580824059810897</v>
       </c>
       <c r="H21" s="34">
         <f>MAX(1,MIN(10,$K$7+H19))</f>
-        <v>6.484600021774888</v>
+        <v>7.0208778750132792</v>
       </c>
       <c r="I21" s="35">
-        <f t="shared" ref="I21" si="4">MAX(1,MIN(10,$K$7+I19))</f>
+        <f t="shared" ref="I21" si="5">MAX(1,MIN(10,$K$7+I19))</f>
         <v>7</v>
       </c>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="42" t="s">
         <v>23</v>
       </c>
@@ -1607,84 +1615,84 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="str">
         <f>B4</f>
         <v>Jelle</v>
       </c>
       <c r="C24" s="41">
         <f>D21</f>
-        <v>6.4769879605580245</v>
+        <v>6.916809698024009</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="48">
         <f>C24+D24</f>
-        <v>6.4769879605580245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>6.916809698024009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="36" t="str">
-        <f t="shared" ref="B25:B29" si="5">B5</f>
+        <f t="shared" ref="B25:B29" si="6">B5</f>
         <v>Ben</v>
       </c>
       <c r="C25" s="38">
         <f>E21</f>
-        <v>6.976836850399458</v>
+        <v>6.9373663749601615</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="49">
-        <f t="shared" ref="E25:E29" si="6">C25+D25</f>
-        <v>6.976836850399458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E25:E29" si="7">C25+D25</f>
+        <v>6.9373663749601615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Joeri</v>
       </c>
       <c r="C26" s="38">
         <f>F21</f>
-        <v>6.5692842028124909</v>
+        <v>7.1663806039519811</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="49">
+        <f t="shared" si="7"/>
+        <v>7.1663806039519811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="36" t="str">
         <f t="shared" si="6"/>
-        <v>6.5692842028124909</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="36" t="str">
-        <f t="shared" si="5"/>
         <v>Kerwin</v>
       </c>
       <c r="C27" s="38">
         <f>G21</f>
-        <v>6.4922909644551385</v>
+        <v>6.9580824059810897</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="49">
+        <f t="shared" si="7"/>
+        <v>6.9580824059810897</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="str">
         <f t="shared" si="6"/>
-        <v>6.4922909644551385</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="str">
-        <f t="shared" si="5"/>
         <v>Mike</v>
       </c>
       <c r="C28" s="38">
         <f>H21</f>
-        <v>6.484600021774888</v>
+        <v>7.0208778750132792</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="49">
+        <f t="shared" si="7"/>
+        <v>7.0208778750132792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="37">
         <f t="shared" si="6"/>
-        <v>6.484600021774888</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="37">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C29" s="39">
@@ -1693,11 +1701,11 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="K3:L3"/>
@@ -1716,17 +1724,17 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +1742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1742,7 +1750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1750,7 +1758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1758,7 +1766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1766,12 +1774,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1779,32 +1787,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>

--- a/Documentatie/Eindverslag/peer-review-project gewogen groep PI.xlsx
+++ b/Documentatie/Eindverslag/peer-review-project gewogen groep PI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\BDMei\eclipse-workspace\project-parkeersimulator\Documentatie\Eindverslag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\eclipse-workspace\project-parkeersimulator\Documentatie\Eindverslag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invullen" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -929,24 +929,24 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="3" customWidth="1"/>
-    <col min="4" max="9" width="10.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="24" customWidth="1"/>
-    <col min="14" max="18" width="5.7109375" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
+    <col min="4" max="9" width="10.21875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" style="24" customWidth="1"/>
+    <col min="14" max="18" width="5.77734375" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>45</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="16"/>
       <c r="D2" s="1"/>
@@ -985,7 +985,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
@@ -1021,7 +1021,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="L4" s="51"/>
       <c r="M4" s="29">
         <f>(MAX(D13:I13)-MIN(D13:I13))/2</f>
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1057,7 +1057,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
@@ -1159,13 +1159,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="8">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E8" s="8">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="F8" s="8">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="G8" s="8">
         <v>8</v>
@@ -1182,7 +1182,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -1203,7 +1203,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="9"/>
@@ -1222,7 +1222,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="9"/>
@@ -1241,22 +1241,22 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="9">
         <f>SUM(D4:D11)-D4</f>
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="E12" s="9">
         <f>SUM(E4:E11)-E5</f>
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="F12" s="9">
         <f>SUM(F4:F11)-F6</f>
-        <v>33.5</v>
+        <v>34</v>
       </c>
       <c r="G12" s="9">
         <f>SUM(G4:G11)-G7</f>
@@ -1280,22 +1280,22 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="11">
         <f>IF(D12&gt;0,D12/($M$3-1),"")</f>
-        <v>8</v>
+        <v>8.125</v>
       </c>
       <c r="E13" s="11">
         <f>IF(E12&gt;0,E12/($M$3-1),"")</f>
-        <v>8</v>
+        <v>8.125</v>
       </c>
       <c r="F13" s="11">
         <f>IF(F12&gt;0,F12/($M$3-1),"")</f>
-        <v>8.375</v>
+        <v>8.5</v>
       </c>
       <c r="G13" s="11">
         <f>IF(G12&gt;0,G12/($M$3-1),"")</f>
@@ -1319,7 +1319,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -1342,29 +1342,29 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="11">
         <f>AVERAGE(D13:K13)</f>
-        <v>8.1</v>
+        <v>8.1750000000000007</v>
       </c>
       <c r="D15" s="11">
         <f>IF(D12&gt;0,AVERAGE(D5:I9),"")</f>
-        <v>8.125</v>
+        <v>8.21875</v>
       </c>
       <c r="E15" s="11">
         <f>IF(E12&gt;0,AVERAGE(D4:I4,D6:I9),"")</f>
-        <v>8.09375</v>
+        <v>8.1875</v>
       </c>
       <c r="F15" s="11">
         <f>IF(F12&gt;0,AVERAGE(D4:I5,D7:I9),"")</f>
-        <v>8.125</v>
+        <v>8.21875</v>
       </c>
       <c r="G15" s="11">
         <f>IF(G12&gt;0,AVERAGE(D4:I6,D8:I9),"")</f>
-        <v>8.0625</v>
+        <v>8.15625</v>
       </c>
       <c r="H15" s="1">
         <f>IF(H12&gt;0,AVERAGE(D4:I7,D9:I9),"")</f>
@@ -1384,7 +1384,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="12"/>
       <c r="D16" s="11"/>
@@ -1403,26 +1403,26 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="11">
         <f>IF(D12&gt;0,(D13-D15)/D15,0)</f>
-        <v>-1.5384615384615385E-2</v>
+        <v>-1.1406844106463879E-2</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" ref="E17:I17" si="1">IF(E12&gt;0,(E13-E15)/E15,0)</f>
-        <v>-1.1583011583011582E-2</v>
+        <v>-7.6335877862595417E-3</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
-        <v>3.0769230769230771E-2</v>
+        <v>3.4220532319391636E-2</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="1"/>
-        <v>-7.7519379844961239E-3</v>
+        <v>-1.9157088122605363E-2</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
@@ -1439,30 +1439,30 @@
       <c r="L17" s="18"/>
       <c r="M17" s="19">
         <f t="shared" ref="M17:R17" si="2">ABS(D18)</f>
-        <v>0.12461538461538461</v>
+        <v>9.3250950570342217E-2</v>
       </c>
       <c r="N17" s="19">
         <f t="shared" si="2"/>
-        <v>9.382239382239381E-2</v>
+        <v>6.2404580152671758E-2</v>
       </c>
       <c r="O17" s="19">
         <f t="shared" si="2"/>
-        <v>0.24923076923076923</v>
+        <v>0.27975285171102665</v>
       </c>
       <c r="P17" s="19">
         <f t="shared" si="2"/>
-        <v>6.2790697674418597E-2</v>
+        <v>0.15660919540229884</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="2"/>
-        <v>3.1274131274131277E-2</v>
+        <v>3.1563706563706564E-2</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1470,23 +1470,23 @@
       <c r="C18" s="2"/>
       <c r="D18" s="9">
         <f>D17*$C$15</f>
-        <v>-0.12461538461538461</v>
+        <v>-9.3250950570342217E-2</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" ref="E18:I18" si="3">E17*$C$15</f>
-        <v>-9.382239382239381E-2</v>
+        <v>-6.2404580152671758E-2</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="3"/>
-        <v>0.24923076923076923</v>
+        <v>0.27975285171102665</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="3"/>
-        <v>-6.2790697674418597E-2</v>
+        <v>-0.15660919540229884</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="3"/>
-        <v>3.1274131274131277E-2</v>
+        <v>3.1563706563706564E-2</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="3"/>
@@ -1499,7 +1499,7 @@
       <c r="L18" s="18"/>
       <c r="M18" s="19">
         <f>SUM(M17:U17)/2</f>
-        <v>0.28086668830854877</v>
+        <v>0.311790642200023</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
@@ -1507,7 +1507,7 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
@@ -1515,23 +1515,23 @@
       <c r="C19" s="13"/>
       <c r="D19" s="23">
         <f>D18*$M$4/$M19</f>
-        <v>-8.3190301975990644E-2</v>
+        <v>-7.477048534262852E-2</v>
       </c>
       <c r="E19" s="23">
         <f>E18*$M$4/$M19</f>
-        <v>-6.2633625039838506E-2</v>
+        <v>-5.0037245916313741E-2</v>
       </c>
       <c r="F19" s="23">
         <f>F18*$M$4/$M19</f>
-        <v>0.16638060395198129</v>
+        <v>0.22431145602788558</v>
       </c>
       <c r="G19" s="23">
         <f>G18*$M$4/$M19</f>
-        <v>-4.1917594018910015E-2</v>
+        <v>-0.1255723987555</v>
       </c>
       <c r="H19" s="23">
         <f>H18*$M$4/$M19</f>
-        <v>2.0877875013279507E-2</v>
+        <v>2.53084139576722E-2</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" ref="I19" si="4">I18*$M$4/$M19</f>
@@ -1544,7 +1544,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="19">
         <f>IF(M18&lt;$M$4,$M$4,M18)</f>
-        <v>0.28086668830854877</v>
+        <v>0.311790642200023</v>
       </c>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
@@ -1552,7 +1552,7 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1570,29 +1570,29 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="33">
         <f>MAX(1,MIN(10,$K$7+D19))</f>
-        <v>6.916809698024009</v>
+        <v>6.9252295146573717</v>
       </c>
       <c r="E21" s="34">
         <f>MAX(1,MIN(10,$K$7+E19))</f>
-        <v>6.9373663749601615</v>
+        <v>6.9499627540836864</v>
       </c>
       <c r="F21" s="34">
         <f>MAX(1,MIN(10,$K$7+F19))</f>
-        <v>7.1663806039519811</v>
+        <v>7.2243114560278858</v>
       </c>
       <c r="G21" s="34">
         <f>MAX(1,MIN(10,$K$7+G19))</f>
-        <v>6.9580824059810897</v>
+        <v>6.8744276012445003</v>
       </c>
       <c r="H21" s="34">
         <f>MAX(1,MIN(10,$K$7+H19))</f>
-        <v>7.0208778750132792</v>
+        <v>7.0253084139576725</v>
       </c>
       <c r="I21" s="35">
         <f t="shared" ref="I21" si="5">MAX(1,MIN(10,$K$7+I19))</f>
@@ -1600,8 +1600,8 @@
       </c>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="42" t="s">
         <v>23</v>
       </c>
@@ -1615,82 +1615,82 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="str">
         <f>B4</f>
         <v>Jelle</v>
       </c>
       <c r="C24" s="41">
         <f>D21</f>
-        <v>6.916809698024009</v>
+        <v>6.9252295146573717</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="48">
         <f>C24+D24</f>
-        <v>6.916809698024009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6.9252295146573717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="str">
         <f t="shared" ref="B25:B29" si="6">B5</f>
         <v>Ben</v>
       </c>
       <c r="C25" s="38">
         <f>E21</f>
-        <v>6.9373663749601615</v>
+        <v>6.9499627540836864</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="49">
         <f t="shared" ref="E25:E29" si="7">C25+D25</f>
-        <v>6.9373663749601615</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6.9499627540836864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="36" t="str">
         <f t="shared" si="6"/>
         <v>Joeri</v>
       </c>
       <c r="C26" s="38">
         <f>F21</f>
-        <v>7.1663806039519811</v>
+        <v>7.2243114560278858</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="49">
         <f t="shared" si="7"/>
-        <v>7.1663806039519811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7.2243114560278858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="36" t="str">
         <f t="shared" si="6"/>
         <v>Kerwin</v>
       </c>
       <c r="C27" s="38">
         <f>G21</f>
-        <v>6.9580824059810897</v>
+        <v>6.8744276012445003</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="49">
         <f t="shared" si="7"/>
-        <v>6.9580824059810897</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6.8744276012445003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="36" t="str">
         <f t="shared" si="6"/>
         <v>Mike</v>
       </c>
       <c r="C28" s="38">
         <f>H21</f>
-        <v>7.0208778750132792</v>
+        <v>7.0253084139576725</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="49">
         <f t="shared" si="7"/>
-        <v>7.0208778750132792</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.0253084139576725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="K3:L3"/>
@@ -1724,17 +1724,17 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1774,12 +1774,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1787,32 +1787,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
